--- a/Monopoly/monopoly.xlsx
+++ b/Monopoly/monopoly.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Desktop/Monopoly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Desktop/Monopoly/Monopoly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8B20A-D336-CD47-BE32-D92B871CA328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B688E7-7DC3-D24D-819F-B60DBCDF2EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{AD6F9765-5E20-414B-A7D5-CBE48C8AC333}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Rue de Courcelles</t>
   </si>
   <si>
-    <t>Avenue de la République</t>
-  </si>
-  <si>
     <t>Hypothèque</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Ville</t>
   </si>
   <si>
-    <t>Départ</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -99,18 +93,12 @@
     <t>Chance</t>
   </si>
   <si>
-    <t>Impôts sur le revenu</t>
-  </si>
-  <si>
     <t>Noir</t>
   </si>
   <si>
     <t>Bleu clair</t>
   </si>
   <si>
-    <t>« Payer</t>
-  </si>
-  <si>
     <t>Prison</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Rose</t>
   </si>
   <si>
-    <t>Compagnie de distribution d’électricité</t>
-  </si>
-  <si>
     <t>Blanc</t>
   </si>
   <si>
@@ -150,18 +135,12 @@
     <t>Parc Gratuit</t>
   </si>
   <si>
-    <t>« Vous remportez le total des taxes accumulées ! Bien joué ;) »</t>
-  </si>
-  <si>
     <t>Avenue de Matignon </t>
   </si>
   <si>
     <t>Rouge</t>
   </si>
   <si>
-    <t>« Vous remportez 70M »</t>
-  </si>
-  <si>
     <t>Boulevard Malesherbes </t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>Gare du Nord</t>
   </si>
   <si>
-    <t>Faubourg Saint-Honoré</t>
-  </si>
-  <si>
     <t>Jaune</t>
   </si>
   <si>
@@ -204,12 +180,6 @@
     <t>Gare Saint-Lazare</t>
   </si>
   <si>
-    <t>« Vous remportez 50M »</t>
-  </si>
-  <si>
-    <t>Avenue des Champs-Elysées</t>
-  </si>
-  <si>
     <t>Bleu fonce</t>
   </si>
   <si>
@@ -219,16 +189,46 @@
     <t>Rue de La Paix</t>
   </si>
   <si>
-    <t>« Vous remportez 100€ »</t>
-  </si>
-  <si>
-    <t>« Payer 100€  »</t>
-  </si>
-  <si>
-    <t>« Payer 200€ » </t>
-  </si>
-  <si>
-    <t>« Payer 30€ »</t>
+    <t>Depart</t>
+  </si>
+  <si>
+    <t>Impots sur le revenu</t>
+  </si>
+  <si>
+    <t>Vous remportez 100M</t>
+  </si>
+  <si>
+    <t>Payer 200M </t>
+  </si>
+  <si>
+    <t>Payer 50M</t>
+  </si>
+  <si>
+    <t>Avenue de la Republique</t>
+  </si>
+  <si>
+    <t>Compagnie de distribution d’electricite</t>
+  </si>
+  <si>
+    <t>Payer 100M</t>
+  </si>
+  <si>
+    <t>Vous remportez 70M</t>
+  </si>
+  <si>
+    <t>Faubourg Saint-Honore</t>
+  </si>
+  <si>
+    <t>Avenue des Champs-Elysees</t>
+  </si>
+  <si>
+    <t>Vous remportez 50M</t>
+  </si>
+  <si>
+    <t>Payer 30M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous remportez le total des taxes accumulees </t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E41"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -633,22 +633,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4">
@@ -678,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>60</v>
@@ -710,13 +710,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <v>60</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -788,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>200</v>
@@ -813,10 +813,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>100</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -867,10 +867,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <v>100</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>120</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -951,13 +951,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>140</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4">
         <v>150</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
         <v>140</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>160</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4">
         <v>200</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
         <v>180</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4">
         <v>180</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4">
         <v>200</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4">
         <v>220</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4">
         <v>70</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4">
         <v>220</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4">
         <v>240</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4">
         <v>200</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4">
         <v>260</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4">
         <v>260</v>
@@ -1468,13 +1468,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4">
         <v>150</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>280</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4">
         <v>300</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D34" s="4">
         <v>300</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="4">
         <v>30</v>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4">
         <v>320</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4">
         <v>200</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D38" s="4">
         <v>50</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4">
         <v>350</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D40" s="4">
         <v>100</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>400</v>
